--- a/test_for_cat_creations.xlsx
+++ b/test_for_cat_creations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vagelis\Desktop\str_app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vagelis\Desktop\deiktes_paratiritirio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F195DE1-D3C5-4111-9F57-A8A5D85C0825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80DE053-0089-43D7-9885-E89477AFF688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43200" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{0EAD22E8-1378-441B-84B8-52BC458E947D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0EAD22E8-1378-441B-84B8-52BC458E947D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -434,9 +434,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -474,7 +474,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -580,7 +580,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -722,7 +722,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -732,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D78F6CC-205A-42EF-AAD2-543A5114BD31}">
   <dimension ref="A1:BU100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -990,9 +990,6 @@
       <c r="F2" t="s">
         <v>97</v>
       </c>
-      <c r="G2">
-        <v>39</v>
-      </c>
       <c r="H2" t="s">
         <v>4</v>
       </c>

--- a/test_for_cat_creations.xlsx
+++ b/test_for_cat_creations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vagelis\Desktop\deiktes_paratiritirio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80DE053-0089-43D7-9885-E89477AFF688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487B78EF-9FF6-48D1-BC89-1ED2B0797B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0EAD22E8-1378-441B-84B8-52BC458E947D}"/>
   </bookViews>
@@ -733,7 +733,7 @@
   <dimension ref="A1:BU100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -990,6 +990,9 @@
       <c r="F2" t="s">
         <v>97</v>
       </c>
+      <c r="G2">
+        <v>39</v>
+      </c>
       <c r="H2" t="s">
         <v>4</v>
       </c>

--- a/test_for_cat_creations.xlsx
+++ b/test_for_cat_creations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vagelis\Desktop\deiktes_paratiritirio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487B78EF-9FF6-48D1-BC89-1ED2B0797B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB19220-F530-4B55-B970-AE6EBAAA8CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0EAD22E8-1378-441B-84B8-52BC458E947D}"/>
   </bookViews>

--- a/test_for_cat_creations.xlsx
+++ b/test_for_cat_creations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vagelis\Desktop\deiktes_paratiritirio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB19220-F530-4B55-B970-AE6EBAAA8CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D89967E-32CE-42D5-B626-DDC022BAA9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0EAD22E8-1378-441B-84B8-52BC458E947D}"/>
   </bookViews>
@@ -733,7 +733,7 @@
   <dimension ref="A1:BU100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
